--- a/config_12.28/activity_ty_task_config.xlsx
+++ b/config_12.28/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="757">
   <si>
     <t>index|索引</t>
   </si>
@@ -5232,6 +5232,38 @@
   </si>
   <si>
     <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|描述</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","水滴",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","5元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","5元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","10元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","20元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","20元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","50元优惠券",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6787,11 +6819,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V271"/>
+  <dimension ref="A1:W271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G185" sqref="G185"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H277" sqref="H277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6803,22 +6835,22 @@
     <col min="5" max="6" width="11.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="61.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="34.625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="28.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="86.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="26.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="22.125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="27.75" style="3" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.5" style="3" customWidth="1"/>
-    <col min="19" max="19" width="19.875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="32.25" style="3" customWidth="1"/>
-    <col min="21" max="21" width="19.375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="25.625" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="11" style="3"/>
+    <col min="9" max="12" width="28.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="86.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="26.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="22.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="27.75" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="13.5" style="3" customWidth="1"/>
+    <col min="20" max="20" width="19.875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="32.25" style="3" customWidth="1"/>
+    <col min="22" max="22" width="19.375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="25.625" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -6847,46 +6879,49 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="W1" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6914,14 +6949,15 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="P2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="8"/>
+      <c r="M2" s="5"/>
+      <c r="Q2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="20"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -6949,16 +6985,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="21"/>
-      <c r="U3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="21"/>
       <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -6986,14 +7023,15 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="8"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="21"/>
-      <c r="U4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="21"/>
       <c r="V4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -7021,14 +7059,15 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="8"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="21"/>
-      <c r="U5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="21"/>
       <c r="V5" s="8"/>
-    </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -7056,14 +7095,15 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="21"/>
-      <c r="U6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="21"/>
       <c r="V6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -7091,15 +7131,16 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="8"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="21"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -7127,8 +7168,9 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -7156,8 +7198,9 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -7185,8 +7228,9 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -7214,8 +7258,9 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -7243,8 +7288,9 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -7272,8 +7318,9 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -7301,8 +7348,9 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -7330,8 +7378,9 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -7359,8 +7408,9 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -7388,8 +7438,9 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -7417,8 +7468,9 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -7446,8 +7498,9 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -7475,8 +7528,9 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -7504,8 +7558,9 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -7533,16 +7588,17 @@
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="15"/>
-      <c r="O22" s="2" t="s">
+      <c r="L22" s="5"/>
+      <c r="M22" s="15"/>
+      <c r="P22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -7570,16 +7626,17 @@
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="15"/>
-      <c r="O23" s="2" t="s">
+      <c r="L23" s="5"/>
+      <c r="M23" s="15"/>
+      <c r="P23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="R23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -7607,16 +7664,17 @@
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="15"/>
-      <c r="O24" s="12" t="s">
+      <c r="L24" s="5"/>
+      <c r="M24" s="15"/>
+      <c r="P24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="Q24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -7644,15 +7702,16 @@
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="15"/>
-      <c r="O25" s="2" t="s">
+      <c r="L25" s="5"/>
+      <c r="M25" s="15"/>
+      <c r="P25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -7680,15 +7739,16 @@
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="15"/>
-      <c r="O26" s="2" t="s">
+      <c r="L26" s="5"/>
+      <c r="M26" s="15"/>
+      <c r="P26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -7716,15 +7776,16 @@
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="15"/>
-      <c r="O27" s="2" t="s">
+      <c r="L27" s="5"/>
+      <c r="M27" s="15"/>
+      <c r="P27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -7752,15 +7813,16 @@
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="22"/>
-      <c r="O28" s="2" t="s">
+      <c r="L28" s="5"/>
+      <c r="M28" s="22"/>
+      <c r="P28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -7788,9 +7850,10 @@
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="22"/>
-    </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L29" s="5"/>
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -7818,9 +7881,10 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L30" s="5"/>
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -7848,11 +7912,12 @@
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
-      <c r="L31" s="22"/>
-      <c r="P31" s="12"/>
-      <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L31" s="15"/>
+      <c r="M31" s="22"/>
+      <c r="Q31" s="12"/>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -7880,11 +7945,12 @@
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="22"/>
-      <c r="P32" s="12"/>
-      <c r="R32" s="12"/>
-    </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L32" s="5"/>
+      <c r="M32" s="22"/>
+      <c r="Q32" s="12"/>
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -7912,10 +7978,11 @@
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="22"/>
-      <c r="P33" s="12"/>
-    </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L33" s="5"/>
+      <c r="M33" s="22"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -7943,9 +8010,10 @@
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="22"/>
-    </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L34" s="5"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -7973,9 +8041,10 @@
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="22"/>
-    </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L35" s="5"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -8003,9 +8072,10 @@
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="22"/>
-    </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L36" s="5"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -8033,9 +8103,10 @@
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="22"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L37" s="5"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -8063,8 +8134,9 @@
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -8091,8 +8163,9 @@
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -8119,8 +8192,9 @@
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>52</v>
       </c>
@@ -8147,8 +8221,9 @@
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -8175,8 +8250,9 @@
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -8203,8 +8279,9 @@
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>53</v>
       </c>
@@ -8231,8 +8308,9 @@
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -8259,8 +8337,9 @@
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -8287,8 +8366,9 @@
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>54</v>
       </c>
@@ -8315,8 +8395,9 @@
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -8343,8 +8424,9 @@
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -8371,8 +8453,9 @@
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>55</v>
       </c>
@@ -8399,8 +8482,9 @@
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>46</v>
       </c>
@@ -8427,8 +8511,9 @@
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>47</v>
       </c>
@@ -8455,8 +8540,9 @@
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>56</v>
       </c>
@@ -8483,8 +8569,9 @@
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -8511,8 +8598,9 @@
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>57</v>
       </c>
@@ -8539,8 +8627,9 @@
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>49</v>
       </c>
@@ -8567,8 +8656,9 @@
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -8595,8 +8685,9 @@
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -8623,8 +8714,9 @@
       </c>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -8651,8 +8743,9 @@
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>51</v>
       </c>
@@ -8679,8 +8772,9 @@
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="40">
         <v>60</v>
       </c>
@@ -8707,8 +8801,9 @@
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="40">
         <v>61</v>
       </c>
@@ -8735,8 +8830,9 @@
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="40">
         <v>62</v>
       </c>
@@ -8763,8 +8859,9 @@
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-    </row>
-    <row r="64" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="48">
         <v>63</v>
       </c>
@@ -8791,8 +8888,9 @@
       </c>
       <c r="J64" s="50"/>
       <c r="K64" s="50"/>
-    </row>
-    <row r="65" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L64" s="50"/>
+    </row>
+    <row r="65" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="48">
         <v>64</v>
       </c>
@@ -8819,8 +8917,9 @@
       </c>
       <c r="J65" s="50"/>
       <c r="K65" s="50"/>
-    </row>
-    <row r="66" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L65" s="50"/>
+    </row>
+    <row r="66" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="48">
         <v>65</v>
       </c>
@@ -8847,8 +8946,9 @@
       </c>
       <c r="J66" s="50"/>
       <c r="K66" s="50"/>
-    </row>
-    <row r="67" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L66" s="50"/>
+    </row>
+    <row r="67" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="48">
         <v>66</v>
       </c>
@@ -8875,8 +8975,9 @@
       </c>
       <c r="J67" s="50"/>
       <c r="K67" s="50"/>
-    </row>
-    <row r="68" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L67" s="50"/>
+    </row>
+    <row r="68" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="48">
         <v>67</v>
       </c>
@@ -8903,8 +9004,9 @@
       </c>
       <c r="J68" s="50"/>
       <c r="K68" s="50"/>
-    </row>
-    <row r="69" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L68" s="50"/>
+    </row>
+    <row r="69" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="48">
         <v>68</v>
       </c>
@@ -8931,8 +9033,9 @@
       </c>
       <c r="J69" s="50"/>
       <c r="K69" s="50"/>
-    </row>
-    <row r="70" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L69" s="50"/>
+    </row>
+    <row r="70" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="48">
         <v>69</v>
       </c>
@@ -8959,8 +9062,9 @@
       </c>
       <c r="J70" s="50"/>
       <c r="K70" s="50"/>
-    </row>
-    <row r="71" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L70" s="50"/>
+    </row>
+    <row r="71" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="40">
         <v>70</v>
       </c>
@@ -8987,8 +9091,9 @@
       </c>
       <c r="J71" s="41"/>
       <c r="K71" s="41"/>
-    </row>
-    <row r="72" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L71" s="41"/>
+    </row>
+    <row r="72" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="40">
         <v>71</v>
       </c>
@@ -9015,8 +9120,9 @@
       </c>
       <c r="J72" s="41"/>
       <c r="K72" s="41"/>
-    </row>
-    <row r="73" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L72" s="41"/>
+    </row>
+    <row r="73" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="48">
         <v>72</v>
       </c>
@@ -9043,8 +9149,9 @@
       </c>
       <c r="J73" s="50"/>
       <c r="K73" s="50"/>
-    </row>
-    <row r="74" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L73" s="50"/>
+    </row>
+    <row r="74" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="48">
         <v>73</v>
       </c>
@@ -9071,8 +9178,9 @@
       </c>
       <c r="J74" s="50"/>
       <c r="K74" s="50"/>
-    </row>
-    <row r="75" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L74" s="50"/>
+    </row>
+    <row r="75" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="40">
         <v>74</v>
       </c>
@@ -9099,8 +9207,9 @@
       </c>
       <c r="J75" s="41"/>
       <c r="K75" s="41"/>
-    </row>
-    <row r="76" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L75" s="41"/>
+    </row>
+    <row r="76" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="40">
         <v>75</v>
       </c>
@@ -9127,8 +9236,9 @@
       </c>
       <c r="J76" s="41"/>
       <c r="K76" s="41"/>
-    </row>
-    <row r="77" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L76" s="41"/>
+    </row>
+    <row r="77" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="40">
         <v>76</v>
       </c>
@@ -9155,8 +9265,9 @@
       </c>
       <c r="J77" s="41"/>
       <c r="K77" s="41"/>
-    </row>
-    <row r="78" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L77" s="41"/>
+    </row>
+    <row r="78" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="40">
         <v>77</v>
       </c>
@@ -9183,8 +9294,9 @@
       </c>
       <c r="J78" s="41"/>
       <c r="K78" s="41"/>
-    </row>
-    <row r="79" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L78" s="41"/>
+    </row>
+    <row r="79" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="40">
         <v>78</v>
       </c>
@@ -9211,8 +9323,9 @@
       </c>
       <c r="J79" s="41"/>
       <c r="K79" s="41"/>
-    </row>
-    <row r="80" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L79" s="41"/>
+    </row>
+    <row r="80" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="40">
         <v>79</v>
       </c>
@@ -9239,8 +9352,9 @@
       </c>
       <c r="J80" s="41"/>
       <c r="K80" s="41"/>
-    </row>
-    <row r="81" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L80" s="41"/>
+    </row>
+    <row r="81" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="40">
         <v>80</v>
       </c>
@@ -9267,8 +9381,9 @@
       </c>
       <c r="J81" s="41"/>
       <c r="K81" s="41"/>
-    </row>
-    <row r="82" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L81" s="41"/>
+    </row>
+    <row r="82" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="40">
         <v>81</v>
       </c>
@@ -9295,8 +9410,9 @@
       </c>
       <c r="J82" s="41"/>
       <c r="K82" s="41"/>
-    </row>
-    <row r="83" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L82" s="41"/>
+    </row>
+    <row r="83" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="40">
         <v>82</v>
       </c>
@@ -9323,8 +9439,9 @@
       </c>
       <c r="J83" s="41"/>
       <c r="K83" s="41"/>
-    </row>
-    <row r="84" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L83" s="41"/>
+    </row>
+    <row r="84" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="40">
         <v>83</v>
       </c>
@@ -9351,8 +9468,9 @@
       </c>
       <c r="J84" s="41"/>
       <c r="K84" s="41"/>
-    </row>
-    <row r="85" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L84" s="41"/>
+    </row>
+    <row r="85" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="40">
         <v>84</v>
       </c>
@@ -9379,8 +9497,9 @@
       </c>
       <c r="J85" s="41"/>
       <c r="K85" s="41"/>
-    </row>
-    <row r="86" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L85" s="41"/>
+    </row>
+    <row r="86" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="40">
         <v>85</v>
       </c>
@@ -9407,8 +9526,9 @@
       </c>
       <c r="J86" s="41"/>
       <c r="K86" s="41"/>
-    </row>
-    <row r="87" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L86" s="41"/>
+    </row>
+    <row r="87" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="40">
         <v>86</v>
       </c>
@@ -9435,8 +9555,9 @@
       </c>
       <c r="J87" s="41"/>
       <c r="K87" s="41"/>
-    </row>
-    <row r="88" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L87" s="41"/>
+    </row>
+    <row r="88" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="40">
         <v>87</v>
       </c>
@@ -9463,8 +9584,9 @@
       </c>
       <c r="J88" s="41"/>
       <c r="K88" s="41"/>
-    </row>
-    <row r="89" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L88" s="41"/>
+    </row>
+    <row r="89" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="40">
         <v>88</v>
       </c>
@@ -9491,8 +9613,9 @@
       </c>
       <c r="J89" s="41"/>
       <c r="K89" s="41"/>
-    </row>
-    <row r="90" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L89" s="41"/>
+    </row>
+    <row r="90" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="40">
         <v>89</v>
       </c>
@@ -9519,8 +9642,9 @@
       </c>
       <c r="J90" s="41"/>
       <c r="K90" s="41"/>
-    </row>
-    <row r="91" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L90" s="41"/>
+    </row>
+    <row r="91" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="40">
         <v>90</v>
       </c>
@@ -9547,8 +9671,9 @@
       </c>
       <c r="J91" s="41"/>
       <c r="K91" s="41"/>
-    </row>
-    <row r="92" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L91" s="41"/>
+    </row>
+    <row r="92" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="40">
         <v>91</v>
       </c>
@@ -9575,8 +9700,9 @@
       </c>
       <c r="J92" s="41"/>
       <c r="K92" s="41"/>
-    </row>
-    <row r="93" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L92" s="41"/>
+    </row>
+    <row r="93" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="40">
         <v>92</v>
       </c>
@@ -9603,8 +9729,9 @@
       </c>
       <c r="J93" s="41"/>
       <c r="K93" s="41"/>
-    </row>
-    <row r="94" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L93" s="41"/>
+    </row>
+    <row r="94" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="40">
         <v>93</v>
       </c>
@@ -9631,8 +9758,9 @@
       </c>
       <c r="J94" s="41"/>
       <c r="K94" s="41"/>
-    </row>
-    <row r="95" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L94" s="41"/>
+    </row>
+    <row r="95" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="40">
         <v>94</v>
       </c>
@@ -9659,8 +9787,9 @@
       </c>
       <c r="J95" s="41"/>
       <c r="K95" s="41"/>
-    </row>
-    <row r="96" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L95" s="41"/>
+    </row>
+    <row r="96" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="40">
         <v>95</v>
       </c>
@@ -9687,8 +9816,9 @@
       </c>
       <c r="J96" s="41"/>
       <c r="K96" s="41"/>
-    </row>
-    <row r="97" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L96" s="41"/>
+    </row>
+    <row r="97" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="40">
         <v>96</v>
       </c>
@@ -9716,13 +9846,16 @@
       <c r="I97" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J97" s="41"/>
+      <c r="J97" s="50" t="s">
+        <v>750</v>
+      </c>
       <c r="K97" s="41"/>
-      <c r="L97" s="41" t="s">
+      <c r="L97" s="41"/>
+      <c r="M97" s="41" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="40">
         <v>97</v>
       </c>
@@ -9750,10 +9883,13 @@
       <c r="I98" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J98" s="41"/>
+      <c r="J98" s="50" t="s">
+        <v>752</v>
+      </c>
       <c r="K98" s="41"/>
-    </row>
-    <row r="99" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L98" s="41"/>
+    </row>
+    <row r="99" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="40">
         <v>98</v>
       </c>
@@ -9781,10 +9917,13 @@
       <c r="I99" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J99" s="41"/>
+      <c r="J99" s="50" t="s">
+        <v>751</v>
+      </c>
       <c r="K99" s="41"/>
-    </row>
-    <row r="100" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L99" s="41"/>
+    </row>
+    <row r="100" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="40">
         <v>99</v>
       </c>
@@ -9812,10 +9951,13 @@
       <c r="I100" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J100" s="41"/>
+      <c r="J100" s="50" t="s">
+        <v>753</v>
+      </c>
       <c r="K100" s="41"/>
-    </row>
-    <row r="101" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L100" s="41"/>
+    </row>
+    <row r="101" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="40">
         <v>100</v>
       </c>
@@ -9843,10 +9985,13 @@
       <c r="I101" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J101" s="41"/>
+      <c r="J101" s="50" t="s">
+        <v>753</v>
+      </c>
       <c r="K101" s="41"/>
-    </row>
-    <row r="102" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L101" s="41"/>
+    </row>
+    <row r="102" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="40">
         <v>101</v>
       </c>
@@ -9874,10 +10019,13 @@
       <c r="I102" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J102" s="41"/>
+      <c r="J102" s="50" t="s">
+        <v>753</v>
+      </c>
       <c r="K102" s="41"/>
-    </row>
-    <row r="103" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L102" s="41"/>
+    </row>
+    <row r="103" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="40">
         <v>102</v>
       </c>
@@ -9905,10 +10053,13 @@
       <c r="I103" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J103" s="41"/>
+      <c r="J103" s="50" t="s">
+        <v>754</v>
+      </c>
       <c r="K103" s="41"/>
-    </row>
-    <row r="104" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L103" s="41"/>
+    </row>
+    <row r="104" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="40">
         <v>103</v>
       </c>
@@ -9936,10 +10087,13 @@
       <c r="I104" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J104" s="41"/>
+      <c r="J104" s="50" t="s">
+        <v>755</v>
+      </c>
       <c r="K104" s="41"/>
-    </row>
-    <row r="105" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L104" s="41"/>
+    </row>
+    <row r="105" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="40">
         <v>104</v>
       </c>
@@ -9967,10 +10121,13 @@
       <c r="I105" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="J105" s="41"/>
+      <c r="J105" s="50" t="s">
+        <v>756</v>
+      </c>
       <c r="K105" s="41"/>
-    </row>
-    <row r="106" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L105" s="41"/>
+    </row>
+    <row r="106" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="40">
         <v>105</v>
       </c>
@@ -9997,8 +10154,9 @@
       </c>
       <c r="J106" s="41"/>
       <c r="K106" s="41"/>
-    </row>
-    <row r="107" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L106" s="41"/>
+    </row>
+    <row r="107" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="40">
         <v>106</v>
       </c>
@@ -10025,8 +10183,9 @@
       </c>
       <c r="J107" s="41"/>
       <c r="K107" s="41"/>
-    </row>
-    <row r="108" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L107" s="41"/>
+    </row>
+    <row r="108" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="40">
         <v>107</v>
       </c>
@@ -10053,8 +10212,9 @@
       </c>
       <c r="J108" s="41"/>
       <c r="K108" s="41"/>
-    </row>
-    <row r="109" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L108" s="41"/>
+    </row>
+    <row r="109" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="40">
         <v>108</v>
       </c>
@@ -10081,8 +10241,9 @@
       </c>
       <c r="J109" s="41"/>
       <c r="K109" s="41"/>
-    </row>
-    <row r="110" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L109" s="41"/>
+    </row>
+    <row r="110" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="40">
         <v>109</v>
       </c>
@@ -10109,8 +10270,9 @@
       </c>
       <c r="J110" s="41"/>
       <c r="K110" s="41"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L110" s="41"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111" s="40">
         <v>110</v>
       </c>
@@ -10137,8 +10299,9 @@
       </c>
       <c r="J111" s="41"/>
       <c r="K111" s="41"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L111" s="41"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112" s="40">
         <v>111</v>
       </c>
@@ -10165,8 +10328,9 @@
       </c>
       <c r="J112" s="41"/>
       <c r="K112" s="41"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L112" s="41"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" s="40">
         <v>112</v>
       </c>
@@ -10193,8 +10357,9 @@
       </c>
       <c r="J113" s="41"/>
       <c r="K113" s="41"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L113" s="41"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" s="40">
         <v>113</v>
       </c>
@@ -10221,8 +10386,9 @@
       </c>
       <c r="J114" s="41"/>
       <c r="K114" s="41"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L114" s="41"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" s="40">
         <v>114</v>
       </c>
@@ -10249,8 +10415,9 @@
       </c>
       <c r="J115" s="41"/>
       <c r="K115" s="41"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L115" s="41"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" s="40">
         <v>115</v>
       </c>
@@ -10277,8 +10444,9 @@
       </c>
       <c r="J116" s="41"/>
       <c r="K116" s="41"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L116" s="41"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" s="40">
         <v>116</v>
       </c>
@@ -10305,8 +10473,9 @@
       </c>
       <c r="J117" s="41"/>
       <c r="K117" s="41"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L117" s="41"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" s="40">
         <v>117</v>
       </c>
@@ -10336,8 +10505,9 @@
       </c>
       <c r="J118" s="42"/>
       <c r="K118" s="42"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L118" s="42"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" s="40">
         <v>118</v>
       </c>
@@ -10367,8 +10537,9 @@
       </c>
       <c r="J119" s="42"/>
       <c r="K119" s="42"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L119" s="42"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" s="40">
         <v>119</v>
       </c>
@@ -10398,8 +10569,9 @@
       </c>
       <c r="J120" s="42"/>
       <c r="K120" s="42"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L120" s="42"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" s="40">
         <v>120</v>
       </c>
@@ -10425,7 +10597,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A122" s="40">
         <v>121</v>
       </c>
@@ -10451,7 +10623,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A123" s="40">
         <v>122</v>
       </c>
@@ -10478,8 +10650,9 @@
       </c>
       <c r="J123" s="42"/>
       <c r="K123" s="42"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L123" s="42"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" s="40">
         <v>123</v>
       </c>
@@ -10506,8 +10679,9 @@
       </c>
       <c r="J124" s="42"/>
       <c r="K124" s="42"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L124" s="42"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" s="40">
         <v>124</v>
       </c>
@@ -10534,8 +10708,9 @@
       </c>
       <c r="J125" s="42"/>
       <c r="K125" s="42"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L125" s="42"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" s="40">
         <v>125</v>
       </c>
@@ -10562,8 +10737,9 @@
       </c>
       <c r="J126" s="42"/>
       <c r="K126" s="42"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L126" s="42"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" s="40">
         <v>126</v>
       </c>
@@ -10590,8 +10766,9 @@
       </c>
       <c r="J127" s="42"/>
       <c r="K127" s="42"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L127" s="42"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" s="40">
         <v>127</v>
       </c>
@@ -10618,8 +10795,9 @@
       </c>
       <c r="J128" s="42"/>
       <c r="K128" s="42"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L128" s="42"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" s="40">
         <v>128</v>
       </c>
@@ -10646,8 +10824,9 @@
       </c>
       <c r="J129" s="42"/>
       <c r="K129" s="42"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L129" s="42"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="40">
         <v>129</v>
       </c>
@@ -10673,7 +10852,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="40">
         <v>130</v>
       </c>
@@ -10698,8 +10877,9 @@
       <c r="I131" s="42" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J131" s="42"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="40">
         <v>131</v>
       </c>
@@ -10726,8 +10906,9 @@
       </c>
       <c r="J132" s="42"/>
       <c r="K132" s="42"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L132" s="42"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="40">
         <v>132</v>
       </c>
@@ -10754,8 +10935,9 @@
       </c>
       <c r="J133" s="42"/>
       <c r="K133" s="42"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L133" s="42"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="40">
         <v>133</v>
       </c>
@@ -10782,8 +10964,9 @@
       </c>
       <c r="J134" s="42"/>
       <c r="K134" s="42"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L134" s="42"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="40">
         <v>134</v>
       </c>
@@ -10810,8 +10993,9 @@
       </c>
       <c r="J135" s="42"/>
       <c r="K135" s="42"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L135" s="42"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" s="40">
         <v>135</v>
       </c>
@@ -10838,8 +11022,9 @@
       </c>
       <c r="J136" s="42"/>
       <c r="K136" s="42"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L136" s="42"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" s="40">
         <v>136</v>
       </c>
@@ -10866,8 +11051,9 @@
       </c>
       <c r="J137" s="42"/>
       <c r="K137" s="42"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L137" s="42"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" s="40">
         <v>137</v>
       </c>
@@ -10894,8 +11080,9 @@
       </c>
       <c r="J138" s="42"/>
       <c r="K138" s="42"/>
-    </row>
-    <row r="139" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L138" s="42"/>
+    </row>
+    <row r="139" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="53">
         <v>138</v>
       </c>
@@ -10922,8 +11109,9 @@
       </c>
       <c r="J139" s="54"/>
       <c r="K139" s="54"/>
-    </row>
-    <row r="140" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L139" s="54"/>
+    </row>
+    <row r="140" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="53">
         <v>139</v>
       </c>
@@ -10950,8 +11138,9 @@
       </c>
       <c r="J140" s="54"/>
       <c r="K140" s="54"/>
-    </row>
-    <row r="141" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L140" s="54"/>
+    </row>
+    <row r="141" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="53">
         <v>140</v>
       </c>
@@ -10978,8 +11167,9 @@
       </c>
       <c r="J141" s="54"/>
       <c r="K141" s="54"/>
-    </row>
-    <row r="142" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L141" s="54"/>
+    </row>
+    <row r="142" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="53">
         <v>141</v>
       </c>
@@ -11006,8 +11196,9 @@
       </c>
       <c r="J142" s="54"/>
       <c r="K142" s="54"/>
-    </row>
-    <row r="143" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L142" s="54"/>
+    </row>
+    <row r="143" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="53">
         <v>142</v>
       </c>
@@ -11034,8 +11225,9 @@
       </c>
       <c r="J143" s="54"/>
       <c r="K143" s="54"/>
-    </row>
-    <row r="144" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L143" s="54"/>
+    </row>
+    <row r="144" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="53">
         <v>143</v>
       </c>
@@ -11062,8 +11254,9 @@
       </c>
       <c r="J144" s="54"/>
       <c r="K144" s="54"/>
-    </row>
-    <row r="145" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L144" s="54"/>
+    </row>
+    <row r="145" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="53">
         <v>144</v>
       </c>
@@ -11090,8 +11283,9 @@
       </c>
       <c r="J145" s="54"/>
       <c r="K145" s="54"/>
-    </row>
-    <row r="146" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L145" s="54"/>
+    </row>
+    <row r="146" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="53">
         <v>145</v>
       </c>
@@ -11118,8 +11312,9 @@
       </c>
       <c r="J146" s="54"/>
       <c r="K146" s="54"/>
-    </row>
-    <row r="147" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L146" s="54"/>
+    </row>
+    <row r="147" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="53">
         <v>146</v>
       </c>
@@ -11146,8 +11341,9 @@
       </c>
       <c r="J147" s="54"/>
       <c r="K147" s="54"/>
-    </row>
-    <row r="148" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L147" s="54"/>
+    </row>
+    <row r="148" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="53">
         <v>147</v>
       </c>
@@ -11174,8 +11370,9 @@
       </c>
       <c r="J148" s="54"/>
       <c r="K148" s="54"/>
-    </row>
-    <row r="149" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L148" s="54"/>
+    </row>
+    <row r="149" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="53">
         <v>148</v>
       </c>
@@ -11202,8 +11399,9 @@
       </c>
       <c r="J149" s="54"/>
       <c r="K149" s="54"/>
-    </row>
-    <row r="150" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L149" s="54"/>
+    </row>
+    <row r="150" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="53">
         <v>149</v>
       </c>
@@ -11230,8 +11428,9 @@
       </c>
       <c r="J150" s="54"/>
       <c r="K150" s="54"/>
-    </row>
-    <row r="151" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L150" s="54"/>
+    </row>
+    <row r="151" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="53">
         <v>150</v>
       </c>
@@ -11258,8 +11457,9 @@
       </c>
       <c r="J151" s="54"/>
       <c r="K151" s="54"/>
-    </row>
-    <row r="152" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L151" s="54"/>
+    </row>
+    <row r="152" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="53">
         <v>151</v>
       </c>
@@ -11286,8 +11486,9 @@
       </c>
       <c r="J152" s="54"/>
       <c r="K152" s="54"/>
-    </row>
-    <row r="153" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L152" s="54"/>
+    </row>
+    <row r="153" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="53">
         <v>152</v>
       </c>
@@ -11314,8 +11515,9 @@
       </c>
       <c r="J153" s="54"/>
       <c r="K153" s="54"/>
-    </row>
-    <row r="154" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L153" s="54"/>
+    </row>
+    <row r="154" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="53">
         <v>153</v>
       </c>
@@ -11342,8 +11544,9 @@
       </c>
       <c r="J154" s="54"/>
       <c r="K154" s="54"/>
-    </row>
-    <row r="155" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L154" s="54"/>
+    </row>
+    <row r="155" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="53">
         <v>154</v>
       </c>
@@ -11370,8 +11573,9 @@
       </c>
       <c r="J155" s="54"/>
       <c r="K155" s="54"/>
-    </row>
-    <row r="156" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L155" s="54"/>
+    </row>
+    <row r="156" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="53">
         <v>155</v>
       </c>
@@ -11398,8 +11602,9 @@
       </c>
       <c r="J156" s="54"/>
       <c r="K156" s="54"/>
-    </row>
-    <row r="157" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L156" s="54"/>
+    </row>
+    <row r="157" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="53">
         <v>156</v>
       </c>
@@ -11426,8 +11631,9 @@
       </c>
       <c r="J157" s="54"/>
       <c r="K157" s="54"/>
-    </row>
-    <row r="158" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L157" s="54"/>
+    </row>
+    <row r="158" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="53">
         <v>157</v>
       </c>
@@ -11454,8 +11660,9 @@
       </c>
       <c r="J158" s="54"/>
       <c r="K158" s="54"/>
-    </row>
-    <row r="159" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L158" s="54"/>
+    </row>
+    <row r="159" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="53">
         <v>158</v>
       </c>
@@ -11482,8 +11689,9 @@
       </c>
       <c r="J159" s="54"/>
       <c r="K159" s="54"/>
-    </row>
-    <row r="160" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L159" s="54"/>
+    </row>
+    <row r="160" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="53">
         <v>159</v>
       </c>
@@ -11510,8 +11718,9 @@
       </c>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
-    </row>
-    <row r="161" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L160" s="54"/>
+    </row>
+    <row r="161" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="53">
         <v>160</v>
       </c>
@@ -11538,8 +11747,9 @@
       </c>
       <c r="J161" s="54"/>
       <c r="K161" s="54"/>
-    </row>
-    <row r="162" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L161" s="54"/>
+    </row>
+    <row r="162" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="53">
         <v>161</v>
       </c>
@@ -11566,8 +11776,9 @@
       </c>
       <c r="J162" s="54"/>
       <c r="K162" s="54"/>
-    </row>
-    <row r="163" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L162" s="54"/>
+    </row>
+    <row r="163" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="53">
         <v>162</v>
       </c>
@@ -11594,8 +11805,9 @@
       </c>
       <c r="J163" s="54"/>
       <c r="K163" s="54"/>
-    </row>
-    <row r="164" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L163" s="54"/>
+    </row>
+    <row r="164" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="53">
         <v>163</v>
       </c>
@@ -11622,8 +11834,9 @@
       </c>
       <c r="J164" s="54"/>
       <c r="K164" s="54"/>
-    </row>
-    <row r="165" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L164" s="54"/>
+    </row>
+    <row r="165" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="53">
         <v>164</v>
       </c>
@@ -11650,8 +11863,9 @@
       </c>
       <c r="J165" s="54"/>
       <c r="K165" s="54"/>
-    </row>
-    <row r="166" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L165" s="54"/>
+    </row>
+    <row r="166" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="53">
         <v>165</v>
       </c>
@@ -11678,8 +11892,9 @@
       </c>
       <c r="J166" s="54"/>
       <c r="K166" s="54"/>
-    </row>
-    <row r="167" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L166" s="54"/>
+    </row>
+    <row r="167" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="53">
         <v>166</v>
       </c>
@@ -11706,8 +11921,9 @@
       </c>
       <c r="J167" s="54"/>
       <c r="K167" s="54"/>
-    </row>
-    <row r="168" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L167" s="54"/>
+    </row>
+    <row r="168" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="53">
         <v>167</v>
       </c>
@@ -11734,8 +11950,9 @@
       </c>
       <c r="J168" s="54"/>
       <c r="K168" s="54"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L168" s="54"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -11762,11 +11979,12 @@
       </c>
       <c r="J169" s="42"/>
       <c r="K169" s="42"/>
-      <c r="L169" s="42" t="s">
+      <c r="L169" s="42"/>
+      <c r="M169" s="42" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -11793,8 +12011,9 @@
       </c>
       <c r="J170" s="42"/>
       <c r="K170" s="42"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L170" s="42"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -11821,8 +12040,9 @@
       </c>
       <c r="J171" s="42"/>
       <c r="K171" s="42"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L171" s="42"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -11849,8 +12069,9 @@
       </c>
       <c r="J172" s="42"/>
       <c r="K172" s="42"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L172" s="42"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -11877,8 +12098,9 @@
       </c>
       <c r="J173" s="42"/>
       <c r="K173" s="42"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L173" s="42"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -11905,8 +12127,9 @@
       </c>
       <c r="J174" s="42"/>
       <c r="K174" s="42"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L174" s="42"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -11933,8 +12156,9 @@
       </c>
       <c r="J175" s="42"/>
       <c r="K175" s="42"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L175" s="42"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -11961,8 +12185,9 @@
       </c>
       <c r="J176" s="42"/>
       <c r="K176" s="42"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L176" s="42"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -11989,8 +12214,9 @@
       </c>
       <c r="J177" s="42"/>
       <c r="K177" s="42"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L177" s="42"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -12012,12 +12238,12 @@
       <c r="H178" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="J178" s="42" t="s">
+      <c r="K178" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="K178" s="42"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L178" s="42"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -12039,12 +12265,12 @@
       <c r="H179" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="J179" s="42" t="s">
+      <c r="K179" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="K179" s="42"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L179" s="42"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -12066,12 +12292,12 @@
       <c r="H180" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="J180" s="42" t="s">
+      <c r="K180" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="K180" s="42"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L180" s="42"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -12096,11 +12322,12 @@
       <c r="I181" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="K181" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J181" s="42"/>
+      <c r="L181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -12125,11 +12352,12 @@
       <c r="I182" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="K182" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J182" s="42"/>
+      <c r="L182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -12154,11 +12382,12 @@
       <c r="I183" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="K183" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J183" s="42"/>
+      <c r="L183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -12183,8 +12412,9 @@
       <c r="I184" s="42" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J184" s="42"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -12209,8 +12439,9 @@
       <c r="I185" s="42" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J185" s="42"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -12235,8 +12466,9 @@
       <c r="I186" s="42" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J186" s="42"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -12261,8 +12493,9 @@
       <c r="I187" s="42" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J187" s="42"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -12287,8 +12520,9 @@
       <c r="I188" s="42" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J188" s="42"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -12313,8 +12547,9 @@
       <c r="I189" s="42" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J189" s="42"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -12339,8 +12574,9 @@
       <c r="I190" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J190" s="42"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -12365,8 +12601,9 @@
       <c r="I191" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J191" s="42"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -12391,8 +12628,9 @@
       <c r="I192" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192" s="42"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -12417,8 +12655,9 @@
       <c r="I193" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193" s="42"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -12443,8 +12682,9 @@
       <c r="I194" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194" s="42"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -12469,8 +12709,9 @@
       <c r="I195" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195" s="42"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -12495,8 +12736,9 @@
       <c r="I196" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196" s="42"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -12521,8 +12763,9 @@
       <c r="I197" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197" s="42"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -12547,8 +12790,9 @@
       <c r="I198" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198" s="42"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -12573,8 +12817,9 @@
       <c r="I199" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199" s="42"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -12599,8 +12844,9 @@
       <c r="I200" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200" s="42"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -12625,8 +12871,9 @@
       <c r="I201" s="42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J201" s="42"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -12651,8 +12898,9 @@
       <c r="I202" s="42" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202" s="42"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -12677,8 +12925,9 @@
       <c r="I203" s="42" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203" s="42"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -12703,8 +12952,9 @@
       <c r="I204" s="42" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204" s="42"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -12729,8 +12979,9 @@
       <c r="I205" s="42" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205" s="42"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -12755,8 +13006,9 @@
       <c r="I206" s="42" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206" s="42"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -12781,8 +13033,9 @@
       <c r="I207" s="42" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207" s="42"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -12807,8 +13060,9 @@
       <c r="I208" s="42" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208" s="42"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -12833,8 +13087,9 @@
       <c r="I209" s="42" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J209" s="42"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -12859,8 +13114,9 @@
       <c r="I210" s="42" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J210" s="42"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -12885,8 +13141,9 @@
       <c r="I211" s="42" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J211" s="42"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -12911,8 +13168,9 @@
       <c r="I212" s="42" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J212" s="42"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -12937,8 +13195,9 @@
       <c r="I213" s="42" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J213" s="42"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -12963,8 +13222,9 @@
       <c r="I214" s="42" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J214" s="42"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -12989,8 +13249,9 @@
       <c r="I215" s="42" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J215" s="42"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -13018,8 +13279,9 @@
       <c r="I216" s="42" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J216" s="42"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -13047,8 +13309,9 @@
       <c r="I217" s="42" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J217" s="42"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -13076,8 +13339,9 @@
       <c r="I218" s="42" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218" s="42"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -13105,8 +13369,9 @@
       <c r="I219" s="42" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J219" s="42"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -13134,8 +13399,9 @@
       <c r="I220" s="42" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220" s="42"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -13163,8 +13429,9 @@
       <c r="I221" s="42" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221" s="42"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -13192,8 +13459,9 @@
       <c r="I222" s="42" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222" s="42"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -13221,8 +13489,9 @@
       <c r="I223" s="42" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223" s="42"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -13250,8 +13519,9 @@
       <c r="I224" s="42" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224" s="42"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -13279,8 +13549,9 @@
       <c r="I225" s="42" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J225" s="42"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -13308,8 +13579,9 @@
       <c r="I226" s="42" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J226" s="42"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -13337,8 +13609,9 @@
       <c r="I227" s="42" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227" s="42"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -13366,8 +13639,9 @@
       <c r="I228" s="42" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J228" s="42"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -13395,8 +13669,9 @@
       <c r="I229" s="42" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J229" s="42"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -13424,8 +13699,9 @@
       <c r="I230" s="42" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230" s="42"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -13451,7 +13727,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -13476,8 +13752,9 @@
       <c r="I232" s="42" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232" s="42"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -13502,8 +13779,9 @@
       <c r="I233" s="42" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233" s="42"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -13528,8 +13806,9 @@
       <c r="I234" s="42" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J234" s="42"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -13554,8 +13833,9 @@
       <c r="I235" s="42" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J235" s="42"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -13580,8 +13860,9 @@
       <c r="I236" s="42" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J236" s="42"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -13606,8 +13887,9 @@
       <c r="I237" s="42" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237" s="42"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -13632,8 +13914,9 @@
       <c r="I238" s="42" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J238" s="42"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -13658,8 +13941,9 @@
       <c r="I239" s="42" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J239" s="42"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -13684,8 +13968,9 @@
       <c r="I240" s="42" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J240" s="42"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -13710,8 +13995,9 @@
       <c r="I241" s="42" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241" s="42"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -13737,7 +14023,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -13762,8 +14048,9 @@
       <c r="I243" s="42" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J243" s="42"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -13788,8 +14075,9 @@
       <c r="I244" s="42" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J244" s="42"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -13814,8 +14102,9 @@
       <c r="I245" s="42" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245" s="42"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -13840,8 +14129,9 @@
       <c r="I246" s="42" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J246" s="42"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -13866,8 +14156,9 @@
       <c r="I247" s="42" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J247" s="42"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -13892,8 +14183,9 @@
       <c r="I248" s="42" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J248" s="42"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -13918,8 +14210,9 @@
       <c r="I249" s="42" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J249" s="42"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -13944,8 +14237,9 @@
       <c r="I250" s="42" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J250" s="42"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -13970,8 +14264,9 @@
       <c r="I251" s="42" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J251" s="42"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -13996,8 +14291,9 @@
       <c r="I252" s="42" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J252" s="42"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -14023,7 +14319,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -14048,8 +14344,9 @@
       <c r="I254" s="42" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J254" s="42"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -14074,8 +14371,9 @@
       <c r="I255" s="42" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J255" s="42"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -14100,8 +14398,9 @@
       <c r="I256" s="42" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J256" s="42"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -14126,8 +14425,9 @@
       <c r="I257" s="42" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J257" s="42"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -14152,8 +14452,9 @@
       <c r="I258" s="42" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J258" s="42"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -14178,8 +14479,9 @@
       <c r="I259" s="42" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J259" s="42"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -14204,11 +14506,12 @@
       <c r="I260" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="L260" s="42" t="s">
+      <c r="J260" s="42"/>
+      <c r="M260" s="42" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -14233,11 +14536,12 @@
       <c r="I261" s="42" t="s">
         <v>693</v>
       </c>
-      <c r="L261" s="3" t="s">
+      <c r="J261" s="42"/>
+      <c r="M261" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -14263,7 +14567,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -14288,8 +14592,9 @@
       <c r="I263" s="42" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J263" s="42"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -14314,8 +14619,9 @@
       <c r="I264" s="42" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J264" s="42"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -14340,8 +14646,9 @@
       <c r="I265" s="42" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J265" s="42"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -14366,8 +14673,9 @@
       <c r="I266" s="42" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J266" s="42"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -14392,8 +14700,9 @@
       <c r="I267" s="42" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J267" s="42"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -14418,8 +14727,9 @@
       <c r="I268" s="42" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J268" s="42"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -14444,11 +14754,12 @@
       <c r="I269" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="L269" s="3" t="s">
+      <c r="J269" s="42"/>
+      <c r="M269" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -14473,11 +14784,12 @@
       <c r="I270" s="42" t="s">
         <v>695</v>
       </c>
-      <c r="L270" s="3" t="s">
+      <c r="J270" s="42"/>
+      <c r="M270" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="271" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -14505,8 +14817,11 @@
       <c r="I271" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="J271" s="41"/>
+      <c r="J271" s="41" t="s">
+        <v>756</v>
+      </c>
       <c r="K271" s="41"/>
+      <c r="L271" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
